--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:21:23-04:00</t>
+    <t>2023-04-28T13:01:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T13:01:52-04:00</t>
+    <t>2023-05-05T10:26:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:26:54-04:00</t>
+    <t>2023-05-11T16:43:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>A structured set of questions intended to guide the collection of answers from end-users. Questionnaires provide detailed control over order, presentation, phraseology and grouping to allow coherent, consistent data collection.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}que-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}que-2:The link ids for groups and questions must be unique within the questionnaire {descendants().linkId.isDistinct()}</t>
   </si>
   <si>
     <t>Definition</t>
@@ -1784,13 +1788,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1804,10 +1808,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1818,7 +1822,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1827,19 +1831,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1889,13 +1893,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1921,10 +1925,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1935,7 +1939,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1944,16 +1948,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2004,19 +2008,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2036,10 +2040,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2050,28 +2054,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2121,19 +2125,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2153,10 +2157,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2167,7 +2171,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2179,16 +2183,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2214,13 +2218,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2238,19 +2242,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2270,21 +2274,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2296,16 +2300,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2355,25 +2359,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2387,14 +2391,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2413,16 +2417,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2472,7 +2476,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2490,7 +2494,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2504,14 +2508,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2530,16 +2534,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2589,7 +2593,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2601,13 +2605,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2621,14 +2625,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2641,25 +2645,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2708,7 +2712,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2720,13 +2724,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2740,10 +2744,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2754,7 +2758,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2763,22 +2767,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2827,28 +2831,28 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>38</v>
@@ -2859,10 +2863,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2882,22 +2886,22 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -2946,7 +2950,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2958,19 +2962,19 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>38</v>
@@ -2978,10 +2982,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2992,7 +2996,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3001,19 +3005,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3063,28 +3067,28 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -3095,10 +3099,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3109,7 +3113,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3118,22 +3122,22 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3182,25 +3186,25 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3214,10 +3218,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3225,31 +3229,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3299,25 +3303,25 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3331,10 +3335,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3357,17 +3361,17 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3416,7 +3420,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3428,13 +3432,13 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3448,10 +3452,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3459,31 +3463,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3509,13 +3513,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3533,28 +3537,28 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -3565,10 +3569,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3579,7 +3583,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3588,22 +3592,22 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3652,28 +3656,28 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3684,10 +3688,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3707,19 +3711,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3745,13 +3749,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -3769,7 +3773,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3781,13 +3785,13 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
@@ -3801,42 +3805,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3886,28 +3890,28 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -3918,10 +3922,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3932,7 +3936,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3941,22 +3945,22 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -4005,28 +4009,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4037,10 +4041,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4060,19 +4064,19 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4122,7 +4126,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4134,13 +4138,13 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
@@ -4154,10 +4158,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4168,7 +4172,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4180,16 +4184,16 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4239,25 +4243,25 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4271,10 +4275,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4294,22 +4298,22 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4358,7 +4362,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4370,13 +4374,13 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4390,10 +4394,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4413,19 +4417,19 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4451,13 +4455,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -4475,7 +4479,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4487,13 +4491,13 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4507,10 +4511,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4521,7 +4525,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4533,16 +4537,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4592,31 +4596,31 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -4624,21 +4628,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4650,17 +4654,17 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4709,31 +4713,31 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>38</v>
@@ -4741,10 +4745,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4755,7 +4759,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4767,16 +4771,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4826,31 +4830,31 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -4858,10 +4862,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4872,7 +4876,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4884,19 +4888,19 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4945,31 +4949,31 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -4977,10 +4981,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4991,7 +4995,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5000,22 +5004,22 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5064,31 +5068,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5096,10 +5100,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5119,20 +5123,20 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5157,13 +5161,13 @@
         <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>38</v>
@@ -5181,7 +5185,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5193,13 +5197,13 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -5213,10 +5217,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5224,13 +5228,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
@@ -5239,16 +5243,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5298,7 +5302,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5307,16 +5311,16 @@
         <v>37</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -5330,10 +5334,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5344,7 +5348,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5356,13 +5360,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5413,13 +5417,13 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
@@ -5431,7 +5435,7 @@
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5445,14 +5449,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5471,16 +5475,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5530,7 +5534,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5542,13 +5546,13 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5562,14 +5566,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5582,25 +5586,25 @@
         <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5649,7 +5653,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5661,13 +5665,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5681,10 +5685,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5692,13 +5696,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
@@ -5707,19 +5711,19 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5768,25 +5772,25 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5800,10 +5804,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5814,7 +5818,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5826,19 +5830,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5887,25 +5891,25 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -5919,10 +5923,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5945,19 +5949,19 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -5982,13 +5986,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6006,7 +6010,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6015,16 +6019,16 @@
         <v>37</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
@@ -6038,21 +6042,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6064,19 +6068,19 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6125,25 +6129,25 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6157,10 +6161,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6171,7 +6175,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6183,16 +6187,16 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6242,25 +6246,25 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6274,10 +6278,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6285,10 +6289,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6300,19 +6304,19 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6337,13 +6341,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6361,25 +6365,25 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6393,10 +6397,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6413,25 +6417,25 @@
         <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6480,7 +6484,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6492,13 +6496,13 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6512,10 +6516,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6526,7 +6530,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6538,13 +6542,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6595,13 +6599,13 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
@@ -6613,7 +6617,7 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6627,14 +6631,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6653,16 +6657,16 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6712,7 +6716,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -6724,13 +6728,13 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6744,14 +6748,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6764,25 +6768,25 @@
         <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6831,7 +6835,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -6843,13 +6847,13 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6863,10 +6867,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6874,10 +6878,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6889,16 +6893,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6948,25 +6952,25 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -6980,10 +6984,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6991,10 +6995,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7006,13 +7010,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7039,13 +7043,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7063,25 +7067,25 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7095,10 +7099,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7106,10 +7110,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7121,13 +7125,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7154,13 +7158,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7178,25 +7182,25 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7210,10 +7214,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7224,7 +7228,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7236,16 +7240,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7271,13 +7275,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7295,25 +7299,25 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7327,10 +7331,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7341,7 +7345,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7353,23 +7357,23 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>38</v>
@@ -7414,25 +7418,25 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7446,10 +7450,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7460,7 +7464,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7472,88 +7476,88 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q50" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF50" t="s" s="2">
+      <c r="AG50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI50" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AJ50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7567,10 +7571,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7581,7 +7585,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7593,19 +7597,19 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7654,25 +7658,25 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7686,10 +7690,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7700,7 +7704,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7712,16 +7716,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7771,25 +7775,25 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7798,15 +7802,15 @@
         <v>38</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7817,7 +7821,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7829,16 +7833,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7888,25 +7892,25 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7920,10 +7924,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7946,16 +7950,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8005,7 +8009,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -8014,16 +8018,16 @@
         <v>37</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8037,10 +8041,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8051,7 +8055,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8063,13 +8067,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8120,13 +8124,13 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
@@ -8138,7 +8142,7 @@
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8152,14 +8156,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8178,16 +8182,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8237,7 +8241,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8249,13 +8253,13 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8269,14 +8273,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8289,25 +8293,25 @@
         <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8356,7 +8360,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8368,13 +8372,13 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8388,10 +8392,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8399,10 +8403,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8414,16 +8418,16 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8449,13 +8453,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8473,25 +8477,25 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8505,10 +8509,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8519,7 +8523,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8531,23 +8535,23 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>38</v>
@@ -8592,25 +8596,25 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
@@ -8624,10 +8628,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8650,19 +8654,19 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8711,7 +8715,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8720,16 +8724,16 @@
         <v>37</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8743,10 +8747,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8757,7 +8761,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8769,13 +8773,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8826,13 +8830,13 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
@@ -8844,7 +8848,7 @@
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
@@ -8858,14 +8862,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8884,16 +8888,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8943,7 +8947,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -8955,13 +8959,13 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -8975,14 +8979,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8995,25 +8999,25 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -9062,7 +9066,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9074,13 +9078,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9094,10 +9098,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9105,10 +9109,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9120,16 +9124,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9155,13 +9159,13 @@
         <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>38</v>
@@ -9179,25 +9183,25 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9211,10 +9215,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9228,7 +9232,7 @@
         <v>37</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
@@ -9240,16 +9244,16 @@
         <v>39</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9298,7 +9302,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9307,16 +9311,16 @@
         <v>37</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:15:52+00:00</t>
+    <t>2024-03-25T20:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:47:37+00:00</t>
+    <t>2024-03-25T21:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T21:26:55+00:00</t>
+    <t>2024-03-25T22:06:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:06:12+00:00</t>
+    <t>2024-03-25T22:18:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:18:18+00:00</t>
+    <t>2024-03-25T22:49:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:49:56+00:00</t>
+    <t>2024-03-26T03:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T03:52:16+00:00</t>
+    <t>2024-03-26T20:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T20:10:39+00:00</t>
+    <t>2024-04-15T18:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>KinD Lab (http://fhir.kindlab.sickkids.ca)</t>
   </si>
   <si>
     <t>Description</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T18:23:02+00:00</t>
+    <t>2024-04-16T16:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://voicecollab.ai/fhir/StructureDefinition/vbai-questionnaire</t>
+    <t>https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-questionnaire</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T16:30:12+00:00</t>
+    <t>2024-05-13T19:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T19:43:18+00:00</t>
+    <t>2024-05-29T18:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
